--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuJohn\IdeaProjects\Live1\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A4829-BE7F-4E33-B0B7-8DB809BF4D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1189597-09D8-4249-8CDC-5EB4570CFB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DC34EB45-9484-4711-A7A2-04A9005E0E61}"/>
+    <workbookView xWindow="1390" yWindow="1230" windowWidth="13740" windowHeight="7840" activeTab="1" xr2:uid="{DC34EB45-9484-4711-A7A2-04A9005E0E61}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustTest" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>John</t>
   </si>
@@ -49,12 +51,6 @@
     <t>Lannister</t>
   </si>
   <si>
-    <t xml:space="preserve">Arya </t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
     <t>fristname</t>
   </si>
   <si>
@@ -68,6 +64,42 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>John Snow</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Jaime Lannister</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Tcno</t>
+  </si>
+  <si>
+    <t>runmode</t>
+  </si>
+  <si>
+    <t>addCustTest</t>
+  </si>
+  <si>
+    <t>openAccountTest</t>
+  </si>
+  <si>
+    <t>loginasBM</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -419,26 +451,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5CD881-1BCB-403C-9944-B04842844C9F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -452,7 +484,7 @@
         <v>1234</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -466,18 +498,94 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>6785</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BF6545-9040-4D33-96CB-DE52F1247EE2}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4063E247-A813-4C4E-BD4A-1AF7ADAB2031}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>